--- a/заказы/филиалы и опт/2024/07,24/16,07,24 Ост КИ филиалы/дв 16,07,24 бррсч ост ки от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/07,24/16,07,24 Ост КИ филиалы/дв 16,07,24 бррсч ост ки от Зверева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\16,07,24 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\07,24\16,07,24 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E914DD2-2A3C-4F17-9413-591F97C52E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD87B86-8B13-4B18-B0E7-E4226A7A57BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AE$123</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1095,10 +1095,10 @@
   <dimension ref="A1:AY498"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V28" sqref="V28"/>
+      <selection pane="bottomRight" activeCell="V109" sqref="V109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4890,7 +4890,7 @@
         <v>200</v>
       </c>
       <c r="S36" s="5">
-        <f t="shared" ref="S36:S37" si="22">ROUND(R36,0)-T36</f>
+        <f t="shared" ref="S36" si="22">ROUND(R36,0)-T36</f>
         <v>80</v>
       </c>
       <c r="T36" s="5">
@@ -6736,7 +6736,10 @@
       <c r="U53" s="5">
         <v>600</v>
       </c>
-      <c r="V53" s="1"/>
+      <c r="V53" s="1">
+        <f>Y53/(Z53/100)-100</f>
+        <v>16.180371352785144</v>
+      </c>
       <c r="W53" s="1">
         <f>(F53+N53+O53+R53)/P53</f>
         <v>17.492877492877493</v>
@@ -9136,7 +9139,10 @@
         <v>490</v>
       </c>
       <c r="U75" s="5"/>
-      <c r="V75" s="1"/>
+      <c r="V75" s="17">
+        <f>P75/(Y75/100)-100</f>
+        <v>10.034602076124571</v>
+      </c>
       <c r="W75" s="1">
         <f t="shared" si="61"/>
         <v>15</v>
@@ -12921,7 +12927,10 @@
       <c r="U109" s="5">
         <v>220</v>
       </c>
-      <c r="V109" s="1"/>
+      <c r="V109" s="17">
+        <f>P109/(Y109/100)-100</f>
+        <v>32.78688524590163</v>
+      </c>
       <c r="W109" s="1">
         <f t="shared" si="81"/>
         <v>13.888888888888889</v>
@@ -13269,7 +13278,10 @@
         <v>320</v>
       </c>
       <c r="U112" s="5"/>
-      <c r="V112" s="1"/>
+      <c r="V112" s="17">
+        <f>P112/(Y112/100)-100</f>
+        <v>30</v>
+      </c>
       <c r="W112" s="1">
         <f t="shared" si="81"/>
         <v>13</v>

--- a/заказы/филиалы и опт/2024/07,24/16,07,24 Ост КИ филиалы/дв 16,07,24 бррсч ост ки от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/07,24/16,07,24 Ост КИ филиалы/дв 16,07,24 бррсч ост ки от Зверева.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\07,24\16,07,24 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD87B86-8B13-4B18-B0E7-E4226A7A57BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAECF41A-B25B-433C-9E71-2DE494A8049F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1095,10 +1095,10 @@
   <dimension ref="A1:AY498"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V109" sqref="V109"/>
+      <selection pane="bottomRight" activeCell="V81" sqref="V81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
